--- a/config_ios提审/vip2_config.xlsx
+++ b/config_ios提审/vip2_config.xlsx
@@ -385,10 +385,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>4、享受vip专享福利</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>华为荣耀平板</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -944,6 +940,10 @@
   </si>
   <si>
     <t>3、享受vip9所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、享受vip专享福利</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1451,7 +1451,7 @@
         <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1480,13 +1480,13 @@
         <v>48</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1500,16 +1500,16 @@
         <v>48</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1518,16 +1518,16 @@
         <v>48</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1536,18 +1536,18 @@
         <v>200</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1556,16 +1556,16 @@
         <v>200</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E6" s="13"/>
       <c r="G6" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -1574,16 +1574,16 @@
         <v>200</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="18">
         <v>3</v>
@@ -1592,18 +1592,18 @@
         <v>500</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>89</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="18" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="18">
         <v>3</v>
@@ -1612,15 +1612,15 @@
         <v>500</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="18" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="18">
         <v>3</v>
@@ -1629,15 +1629,15 @@
         <v>500</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="18" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="18">
         <v>4</v>
@@ -1646,18 +1646,18 @@
         <v>1000</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>89</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="18" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="18">
         <v>4</v>
@@ -1666,15 +1666,15 @@
         <v>1000</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="18" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="18">
         <v>4</v>
@@ -1683,15 +1683,15 @@
         <v>1000</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="18" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="18">
         <v>5</v>
@@ -1700,18 +1700,18 @@
         <v>2000</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>89</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="18" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="18">
         <v>5</v>
@@ -1720,16 +1720,16 @@
         <v>2000</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="21"/>
       <c r="G15" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="18">
         <v>5</v>
@@ -1738,16 +1738,16 @@
         <v>2000</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E16" s="20"/>
       <c r="G16" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="18">
         <v>5</v>
@@ -1756,16 +1756,16 @@
         <v>2000</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E17" s="20"/>
       <c r="G17" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="18">
         <v>6</v>
@@ -1774,18 +1774,18 @@
         <v>5000</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>89</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="18">
         <v>6</v>
@@ -1794,15 +1794,15 @@
         <v>5000</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="18">
         <v>6</v>
@@ -1811,16 +1811,16 @@
         <v>5000</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E20" s="20"/>
       <c r="G20" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="18">
         <v>7</v>
@@ -1829,18 +1829,18 @@
         <v>10000</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>89</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="18">
         <v>7</v>
@@ -1849,16 +1849,16 @@
         <v>10000</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E22" s="21"/>
       <c r="G22" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="18">
         <v>7</v>
@@ -1867,16 +1867,16 @@
         <v>10000</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E23" s="20"/>
       <c r="G23" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="18">
         <v>8</v>
@@ -1885,18 +1885,18 @@
         <v>20000</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="18">
         <v>8</v>
@@ -1905,16 +1905,16 @@
         <v>20000</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E25" s="21"/>
       <c r="G25" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="18">
         <v>8</v>
@@ -1923,16 +1923,16 @@
         <v>20000</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" s="20"/>
       <c r="G26" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="18">
         <v>9</v>
@@ -1941,18 +1941,18 @@
         <v>30000</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>89</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="18">
         <v>9</v>
@@ -1961,16 +1961,16 @@
         <v>30000</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E28" s="21"/>
       <c r="G28" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="18">
         <v>9</v>
@@ -1979,16 +1979,16 @@
         <v>30000</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E29" s="20"/>
       <c r="G29" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="18">
         <v>10</v>
@@ -1997,18 +1997,18 @@
         <v>50000</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>89</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="18">
         <v>10</v>
@@ -2017,16 +2017,16 @@
         <v>50000</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E31" s="21"/>
       <c r="G31" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="18">
         <v>10</v>
@@ -2035,11 +2035,11 @@
         <v>50000</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E32" s="20"/>
       <c r="G32" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
@@ -2098,13 +2098,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2112,10 +2112,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>69</v>
@@ -2126,10 +2126,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>68</v>
@@ -2254,7 +2254,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2405,10 +2405,10 @@
         <v>21243</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2419,10 +2419,10 @@
         <v>21244</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2433,10 +2433,10 @@
         <v>21248</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2447,10 +2447,10 @@
         <v>21249</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2461,10 +2461,10 @@
         <v>21250</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2475,10 +2475,10 @@
         <v>21251</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2492,7 +2492,7 @@
         <v>79</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2503,10 +2503,10 @@
         <v>21315</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2715,7 +2715,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2726,7 +2726,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2737,7 +2737,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2748,7 +2748,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2759,7 +2759,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2770,7 +2770,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2781,7 +2781,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2792,7 +2792,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2803,7 +2803,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2822,10 +2822,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2833,10 +2833,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3090,7 +3090,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="8">
         <v>10000000000</v>
@@ -3170,13 +3170,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3190,7 +3190,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3221,10 +3221,10 @@
         <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3255,10 +3255,10 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3289,10 +3289,10 @@
         <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3306,10 +3306,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3337,13 +3337,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3354,13 +3354,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3371,13 +3371,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3388,13 +3388,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3405,10 +3405,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -3422,10 +3422,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -3434,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -3480,7 +3480,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3491,10 +3491,10 @@
         <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3542,10 +3542,10 @@
         <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3576,10 +3576,10 @@
         <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>50</v>
@@ -3610,10 +3610,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3641,13 +3641,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3658,13 +3658,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3675,13 +3675,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3692,13 +3692,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3709,13 +3709,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3726,10 +3726,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
